--- a/src/Sfa.Tl.Matching.Application.IntegrationTests/Employer/Employer-WrongDataType.xlsx
+++ b/src/Sfa.Tl.Matching.Application.IntegrationTests/Employer/Employer-WrongDataType.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\DFE\tl-matching\src\Sfa.Tl.Matching.Application.IntegrationTests\Employer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3366D9EC-9BC1-42DC-9D0F-1773257C0602}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A56B3-DC3F-4F74-B646-AD8678932D10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Account Advanced Find View" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>(Do Not Modify) Account</t>
   </si>
@@ -102,13 +102,16 @@
   </si>
   <si>
     <t>CompanyType</t>
+  </si>
+  <si>
+    <t>Employer-WrongDataType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -495,15 +498,15 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
@@ -514,7 +517,7 @@
     <col min="12" max="12" width="8.77734375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -563,7 +566,7 @@
         <v>43439.620694444398</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>4</v>
@@ -643,14 +646,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -664,7 +667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
